--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="411">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T22:11:27+00:00</t>
+    <t>2024-03-15T21:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -499,6 +499,38 @@
   </si>
   <si>
     <t>Link to citations associated with the study's publications.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:associatedParty</t>
+  </si>
+  <si>
+    <t>associatedParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/research-study-associated-party}
+</t>
+  </si>
+  <si>
+    <t>Research Study Associated Party</t>
+  </si>
+  <si>
+    <t>Sponsors, collaborators, and other parties affiliated with a research study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:acknowledgement</t>
+  </si>
+  <si>
+    <t>acknowledgement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/research-study-acknowledgement}
+</t>
+  </si>
+  <si>
+    <t>URL describing the policy restrictions in detail.</t>
+  </si>
+  <si>
+    <t>Provides an informative description of acknowledgement expectations for those using data from the research study.</t>
   </si>
   <si>
     <t>ResearchStudy.extension:consent</t>
@@ -1562,7 +1594,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1571,9 +1603,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.0234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.90234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1581,7 +1613,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.5625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.8671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2917,10 +2949,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2998,10 +3030,10 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3024,11 +3056,13 @@
         <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3041,26 +3075,22 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3108,7 +3138,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3117,10 +3147,10 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3129,7 +3159,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3140,12 +3170,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3154,7 +3186,7 @@
         <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3163,21 +3195,19 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3225,7 +3255,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3237,62 +3267,66 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3346,36 +3380,36 @@
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3383,7 +3417,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -3398,16 +3432,18 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3455,7 +3491,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3470,35 +3506,35 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -3513,18 +3549,16 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3572,13 +3606,13 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
@@ -3587,27 +3621,27 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3615,28 +3649,28 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3663,13 +3697,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3687,13 +3721,13 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -3702,35 +3736,35 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
@@ -3745,16 +3779,18 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3778,13 +3814,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -3802,13 +3838,13 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3817,13 +3853,13 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -3834,10 +3870,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3845,7 +3881,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -3854,19 +3890,19 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3893,13 +3929,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -3917,10 +3953,10 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>90</v>
@@ -3932,27 +3968,27 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3963,7 +3999,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3975,13 +4011,13 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4008,13 +4044,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4032,13 +4068,13 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -4047,7 +4083,7 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>79</v>
@@ -4059,15 +4095,15 @@
         <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4087,16 +4123,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4123,13 +4159,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4147,7 +4183,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4159,22 +4195,22 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -4186,7 +4222,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4202,20 +4238,18 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4240,10 +4274,10 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -4252,19 +4286,19 @@
         <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4276,22 +4310,22 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
@@ -4310,7 +4344,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4319,23 +4353,19 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4344,7 +4374,7 @@
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -4383,28 +4413,28 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4415,21 +4445,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4438,23 +4468,21 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4490,40 +4518,40 @@
         <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4534,10 +4562,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4560,18 +4588,20 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4580,7 +4610,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -4595,10 +4625,10 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4619,7 +4649,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4634,27 +4664,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4665,7 +4695,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4677,18 +4707,20 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4712,13 +4744,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -4736,13 +4768,13 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -4751,27 +4783,27 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4794,15 +4826,17 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4827,10 +4861,10 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -4851,7 +4885,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4866,7 +4900,7 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
@@ -4875,18 +4909,18 @@
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4906,18 +4940,20 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -4942,13 +4978,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -4966,7 +5002,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4981,7 +5017,7 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
@@ -4990,18 +5026,18 @@
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5024,13 +5060,13 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5057,10 +5093,10 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5081,7 +5117,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5096,7 +5132,7 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
@@ -5108,15 +5144,15 @@
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5136,16 +5172,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5172,13 +5208,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5196,7 +5232,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5211,7 +5247,7 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5223,15 +5259,15 @@
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5242,7 +5278,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5251,16 +5287,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5287,10 +5323,10 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5311,13 +5347,13 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -5326,7 +5362,7 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
@@ -5338,19 +5374,19 @@
         <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5369,17 +5405,15 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5404,13 +5438,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5428,7 +5462,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5443,31 +5477,31 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5483,16 +5517,16 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5543,7 +5577,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5558,38 +5592,38 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5601,15 +5635,17 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5658,13 +5694,13 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -5673,31 +5709,31 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5716,13 +5752,13 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5773,7 +5809,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5788,27 +5824,27 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5819,7 +5855,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5831,13 +5867,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5888,13 +5924,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -5903,27 +5939,27 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5946,13 +5982,13 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5979,13 +6015,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6003,7 +6039,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6018,7 +6054,7 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -6027,18 +6063,18 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6058,16 +6094,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6118,7 +6154,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6133,27 +6169,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6164,7 +6200,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6173,16 +6209,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6209,13 +6245,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6233,22 +6269,22 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>359</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -6257,18 +6293,18 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6279,7 +6315,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6291,13 +6327,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>360</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>228</v>
+        <v>361</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6348,28 +6384,28 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>230</v>
+        <v>359</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>231</v>
+        <v>364</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6380,14 +6416,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6406,17 +6442,15 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>233</v>
+        <v>367</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6465,7 +6499,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>236</v>
+        <v>365</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6477,66 +6511,62 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>238</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6584,19 +6614,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -6605,7 +6635,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6616,21 +6646,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6642,15 +6672,17 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>243</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6699,34 +6731,34 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>246</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
@@ -6738,35 +6770,39 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6814,34 +6850,34 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
@@ -6857,7 +6893,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -6872,7 +6908,7 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>380</v>
@@ -6932,7 +6968,7 @@
         <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>90</v>
@@ -6975,7 +7011,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -6987,7 +7023,7 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>385</v>
@@ -7050,13 +7086,13 @@
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>359</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>387</v>
@@ -7071,15 +7107,15 @@
         <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7102,13 +7138,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>228</v>
+        <v>390</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>229</v>
+        <v>391</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7159,7 +7195,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>230</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7171,34 +7207,34 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7217,17 +7253,15 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>136</v>
+        <v>366</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>233</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7276,7 +7310,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>236</v>
+        <v>394</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7288,16 +7322,16 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>142</v>
+        <v>369</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7308,46 +7342,42 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>238</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7395,19 +7425,19 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7416,7 +7446,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7427,21 +7457,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7453,15 +7483,17 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>243</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7510,28 +7542,28 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>391</v>
+        <v>246</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7542,42 +7574,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7601,57 +7637,287 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
+      <c r="Y54" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO52" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-subject.xlsx
+++ b/StructureDefinition-research-study-subject.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
